--- a/RawData/TEST_RETEST_FINA_DATABASE.xlsx
+++ b/RawData/TEST_RETEST_FINA_DATABASE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\Analyses\Gonzalez-Abraldes_TRT\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Google Drive/grants and projects/test retest/Paper write up/paper test-retest shared folder/databases April 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4D0C9B-9095-467F-A837-5CF4F1B4377E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD665F8-EE09-1F40-81C7-EDA81BF25E73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" xr2:uid="{17777284-CCE0-A848-AEAF-E80337575C03}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25920" windowHeight="16740" xr2:uid="{17777284-CCE0-A848-AEAF-E80337575C03}"/>
   </bookViews>
   <sheets>
     <sheet name="Main data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -8387,7 +8387,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D51036A-009D-8C45-B7EC-CE69E0A3649D}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Study">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D51036A-009D-8C45-B7EC-CE69E0A3649D}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Study">
   <location ref="A3:D34" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0">
@@ -8810,7 +8810,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A073A7BE-C293-AA4B-A496-6E322FBA8CEB}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Study">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A073A7BE-C293-AA4B-A496-6E322FBA8CEB}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Study">
   <location ref="A3:D30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -9318,35 +9318,35 @@
   <dimension ref="A1:R290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J275" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C197" sqref="C197"/>
+      <selection pane="bottomRight" activeCell="Q226" sqref="Q226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="16.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.35546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.35546875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="19.35546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="48.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="19.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="48.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="22" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.35546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="27.640625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="25.35546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="27.6640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="25.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.83203125" style="1" customWidth="1"/>
     <col min="18" max="18" width="18.5" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.85546875" style="1"/>
+    <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="70" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -10713,7 +10713,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -11454,7 +11454,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -11934,7 +11934,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -12231,7 +12231,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -13260,7 +13260,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -13376,7 +13376,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -13492,7 +13492,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -13724,7 +13724,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -13782,7 +13782,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -13956,7 +13956,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -14072,7 +14072,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -14188,7 +14188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -14362,7 +14362,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -14478,7 +14478,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -14594,7 +14594,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" s="1">
         <v>21</v>
@@ -14652,7 +14652,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>71</v>
       </c>
       <c r="F93" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" s="1">
         <v>19.5</v>
@@ -14710,7 +14710,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>71</v>
       </c>
       <c r="F94" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94" s="1">
         <v>19</v>
@@ -14768,7 +14768,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -14782,7 +14782,7 @@
         <v>71</v>
       </c>
       <c r="F95" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95" s="1">
         <v>19</v>
@@ -14826,7 +14826,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>71</v>
       </c>
       <c r="F96" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G96" s="1">
         <v>17</v>
@@ -14884,7 +14884,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>71</v>
       </c>
       <c r="F97" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G97" s="1">
         <v>16</v>
@@ -14942,7 +14942,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>70</v>
       </c>
       <c r="F98" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" s="1">
         <v>14</v>
@@ -15000,7 +15000,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -15014,7 +15014,7 @@
         <v>70</v>
       </c>
       <c r="F99" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G99" s="1">
         <v>13.5</v>
@@ -15058,7 +15058,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -15072,7 +15072,7 @@
         <v>70</v>
       </c>
       <c r="F100" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100" s="1">
         <v>13</v>
@@ -15116,7 +15116,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -15130,7 +15130,7 @@
         <v>70</v>
       </c>
       <c r="F101" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101" s="1">
         <v>13</v>
@@ -15174,7 +15174,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -15188,7 +15188,7 @@
         <v>70</v>
       </c>
       <c r="F102" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G102" s="1">
         <v>12.5</v>
@@ -15232,7 +15232,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>70</v>
       </c>
       <c r="F103" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G103" s="1">
         <v>12</v>
@@ -15290,7 +15290,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>70</v>
       </c>
       <c r="F104" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G104" s="1">
         <v>11.5</v>
@@ -15348,7 +15348,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -15362,7 +15362,7 @@
         <v>70</v>
       </c>
       <c r="F105" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G105" s="1">
         <v>11</v>
@@ -15406,7 +15406,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>70</v>
       </c>
       <c r="F106" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G106" s="1">
         <v>10</v>
@@ -15464,7 +15464,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -15647,7 +15647,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -15769,7 +15769,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -15830,7 +15830,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -15952,7 +15952,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -15966,7 +15966,7 @@
         <v>68</v>
       </c>
       <c r="F115" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G115" s="1">
         <v>24</v>
@@ -16009,7 +16009,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -16023,7 +16023,7 @@
         <v>68</v>
       </c>
       <c r="F116" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G116" s="1">
         <v>23.5</v>
@@ -16066,7 +16066,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -16080,7 +16080,7 @@
         <v>68</v>
       </c>
       <c r="F117" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G117" s="1">
         <v>22.5</v>
@@ -16123,7 +16123,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -16137,7 +16137,7 @@
         <v>68</v>
       </c>
       <c r="F118" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G118" s="1">
         <v>22.5</v>
@@ -16180,7 +16180,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -16194,7 +16194,7 @@
         <v>68</v>
       </c>
       <c r="F119" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G119" s="1">
         <v>20</v>
@@ -16237,7 +16237,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -16251,7 +16251,7 @@
         <v>68</v>
       </c>
       <c r="F120" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G120" s="1">
         <v>19</v>
@@ -16294,7 +16294,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -16308,7 +16308,7 @@
         <v>68</v>
       </c>
       <c r="F121" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G121" s="1">
         <v>18</v>
@@ -16351,7 +16351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -16365,7 +16365,7 @@
         <v>68</v>
       </c>
       <c r="F122" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G122" s="1">
         <v>18</v>
@@ -16408,7 +16408,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -16422,7 +16422,7 @@
         <v>68</v>
       </c>
       <c r="F123" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123" s="1">
         <v>17</v>
@@ -16465,7 +16465,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -16479,7 +16479,7 @@
         <v>68</v>
       </c>
       <c r="F124" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G124" s="1">
         <v>17</v>
@@ -16522,7 +16522,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -16536,7 +16536,7 @@
         <v>68</v>
       </c>
       <c r="F125" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G125" s="1">
         <v>16</v>
@@ -16579,7 +16579,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -16593,7 +16593,7 @@
         <v>68</v>
       </c>
       <c r="F126" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G126" s="1">
         <v>14</v>
@@ -16636,7 +16636,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>68</v>
       </c>
       <c r="F127" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G127" s="1">
         <v>13.5</v>
@@ -16693,7 +16693,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -16707,7 +16707,7 @@
         <v>68</v>
       </c>
       <c r="F128" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128" s="1">
         <v>13</v>
@@ -16750,7 +16750,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -16764,7 +16764,7 @@
         <v>68</v>
       </c>
       <c r="F129" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G129" s="1">
         <v>13</v>
@@ -16807,7 +16807,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -16821,7 +16821,7 @@
         <v>68</v>
       </c>
       <c r="F130" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G130" s="1">
         <v>12.5</v>
@@ -16864,7 +16864,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>68</v>
       </c>
       <c r="F131" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G131" s="1">
         <v>11</v>
@@ -16921,7 +16921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -16935,7 +16935,7 @@
         <v>68</v>
       </c>
       <c r="F132" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G132" s="1">
         <v>11</v>
@@ -16978,7 +16978,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -16992,7 +16992,7 @@
         <v>68</v>
       </c>
       <c r="F133" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G133" s="1">
         <v>11</v>
@@ -17035,7 +17035,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -17049,7 +17049,7 @@
         <v>68</v>
       </c>
       <c r="F134" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G134" s="1">
         <v>10</v>
@@ -17092,7 +17092,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -17106,7 +17106,7 @@
         <v>68</v>
       </c>
       <c r="F135" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G135" s="1">
         <v>10</v>
@@ -17149,7 +17149,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -17206,7 +17206,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -17263,7 +17263,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -17320,7 +17320,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -17377,7 +17377,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -17434,7 +17434,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -17548,7 +17548,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -17605,7 +17605,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -17719,7 +17719,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -17833,7 +17833,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -17890,7 +17890,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -17947,7 +17947,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -18004,7 +18004,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -18061,7 +18061,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -18118,7 +18118,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -18175,7 +18175,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -18289,7 +18289,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -18346,7 +18346,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -18403,7 +18403,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -18460,7 +18460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -18517,7 +18517,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -18574,7 +18574,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -18631,7 +18631,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -18688,7 +18688,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -18745,7 +18745,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -18802,7 +18802,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -18859,7 +18859,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -18916,7 +18916,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -18973,7 +18973,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -19030,7 +19030,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -19087,7 +19087,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -19144,7 +19144,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -19201,7 +19201,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -19257,7 +19257,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -19313,7 +19313,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -19368,7 +19368,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -19423,7 +19423,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -19478,7 +19478,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -19533,7 +19533,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -19588,7 +19588,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -19643,7 +19643,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -19698,7 +19698,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -19753,7 +19753,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -19808,7 +19808,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -19863,7 +19863,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -19918,7 +19918,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -19973,7 +19973,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -20028,7 +20028,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -20083,7 +20083,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -20138,7 +20138,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -20193,7 +20193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -20248,7 +20248,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -20303,7 +20303,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -20358,7 +20358,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -20413,7 +20413,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -20468,7 +20468,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -20523,7 +20523,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -20578,7 +20578,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -20637,7 +20637,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -20696,7 +20696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -20755,7 +20755,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -20811,7 +20811,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -20870,7 +20870,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -20929,7 +20929,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -20985,7 +20985,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -21044,7 +21044,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -21100,7 +21100,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -21159,7 +21159,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -21215,7 +21215,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -21271,7 +21271,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -21330,7 +21330,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -21389,7 +21389,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -21448,7 +21448,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -21507,7 +21507,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -21566,7 +21566,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -21625,7 +21625,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -21684,7 +21684,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -21743,7 +21743,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -21792,11 +21792,14 @@
       <c r="P217" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q217" s="1">
+        <v>0</v>
+      </c>
       <c r="R217" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -21845,11 +21848,14 @@
       <c r="P218" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q218" s="1">
+        <v>0</v>
+      </c>
       <c r="R218" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -21898,11 +21904,14 @@
       <c r="P219" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q219" s="1">
+        <v>0</v>
+      </c>
       <c r="R219" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -21951,11 +21960,14 @@
       <c r="P220" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q220" s="1">
+        <v>0</v>
+      </c>
       <c r="R220" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -22004,11 +22016,14 @@
       <c r="P221" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q221" s="1">
+        <v>0</v>
+      </c>
       <c r="R221" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -22057,11 +22072,14 @@
       <c r="P222" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q222" s="1">
+        <v>0</v>
+      </c>
       <c r="R222" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -22110,11 +22128,14 @@
       <c r="P223" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q223" s="1">
+        <v>0</v>
+      </c>
       <c r="R223" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -22163,11 +22184,14 @@
       <c r="P224" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q224" s="1">
+        <v>0</v>
+      </c>
       <c r="R224" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -22216,11 +22240,14 @@
       <c r="P225" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q225" s="1">
+        <v>0</v>
+      </c>
       <c r="R225" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -22279,7 +22306,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -22338,7 +22365,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -22397,7 +22424,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -22456,7 +22483,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -22515,7 +22542,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -22574,7 +22601,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -22633,7 +22660,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -22692,7 +22719,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -22751,7 +22778,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -22810,7 +22837,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -22869,7 +22896,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -22928,7 +22955,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -22987,7 +23014,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -23046,7 +23073,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -23105,7 +23132,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -23164,7 +23191,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -23223,7 +23250,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -23282,7 +23309,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -23341,7 +23368,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -23400,7 +23427,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -23459,7 +23486,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -23518,7 +23545,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -23577,7 +23604,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -23636,7 +23663,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -23695,7 +23722,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -23754,7 +23781,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -23813,7 +23840,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -23872,7 +23899,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -23931,7 +23958,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -23990,7 +24017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -24049,7 +24076,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -24108,7 +24135,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -24167,7 +24194,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -24226,7 +24253,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -24285,7 +24312,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -24344,7 +24371,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -24403,7 +24430,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -24462,7 +24489,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -24521,7 +24548,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -24580,7 +24607,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -24639,7 +24666,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -24698,7 +24725,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -24757,7 +24784,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -24816,7 +24843,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -24875,7 +24902,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -24934,7 +24961,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -24993,7 +25020,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -25052,7 +25079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -25111,7 +25138,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -25170,7 +25197,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -25229,7 +25256,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -25288,7 +25315,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -25347,7 +25374,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -25406,7 +25433,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -25465,7 +25492,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -25524,7 +25551,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -25583,7 +25610,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -25597,7 +25624,7 @@
         <v>61</v>
       </c>
       <c r="F283" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G283" s="1">
         <v>23</v>
@@ -25639,7 +25666,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -25653,7 +25680,7 @@
         <v>61</v>
       </c>
       <c r="F284" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G284" s="1">
         <v>20</v>
@@ -25695,7 +25722,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -25709,7 +25736,7 @@
         <v>61</v>
       </c>
       <c r="F285" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G285" s="1">
         <v>19</v>
@@ -25751,7 +25778,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -25765,7 +25792,7 @@
         <v>61</v>
       </c>
       <c r="F286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G286" s="1">
         <v>17.5</v>
@@ -25807,7 +25834,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -25821,7 +25848,7 @@
         <v>61</v>
       </c>
       <c r="F287" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G287" s="1">
         <v>16</v>
@@ -25863,7 +25890,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -25877,7 +25904,7 @@
         <v>61</v>
       </c>
       <c r="F288" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G288" s="1">
         <v>15</v>
@@ -25919,7 +25946,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -25933,7 +25960,7 @@
         <v>61</v>
       </c>
       <c r="F289" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G289" s="1">
         <v>15</v>
@@ -25975,7 +26002,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -25989,7 +26016,7 @@
         <v>61</v>
       </c>
       <c r="F290" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G290" s="1">
         <v>11.5</v>
@@ -26048,14 +26075,14 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30.640625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26066,7 +26093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26080,7 +26107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -26094,7 +26121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -26108,7 +26135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>7</v>
       </c>
@@ -26122,7 +26149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
@@ -26136,7 +26163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9</v>
       </c>
@@ -26150,7 +26177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>11</v>
       </c>
@@ -26164,7 +26191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>12</v>
       </c>
@@ -26178,7 +26205,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>13</v>
       </c>
@@ -26192,7 +26219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14</v>
       </c>
@@ -26206,7 +26233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>17</v>
       </c>
@@ -26220,7 +26247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>20</v>
       </c>
@@ -26234,7 +26261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>22</v>
       </c>
@@ -26248,7 +26275,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>23</v>
       </c>
@@ -26262,7 +26289,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>24</v>
       </c>
@@ -26276,7 +26303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>27</v>
       </c>
@@ -26290,7 +26317,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -26316,9 +26343,9 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K20" t="s">
         <v>34</v>
       </c>
@@ -26337,20 +26364,20 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.640625" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.450000000000003" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -26364,7 +26391,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>45</v>
       </c>
@@ -26378,7 +26405,7 @@
         <v>1.8446475569536311</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -26392,7 +26419,7 @@
         <v>1.6837458240482737</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -26406,7 +26433,7 @@
         <v>1.3820274961085253</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -26420,7 +26447,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -26434,7 +26461,7 @@
         <v>1.003081671403766</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -26448,7 +26475,7 @@
         <v>1.2183492931011204</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -26462,7 +26489,7 @@
         <v>1.6007810593582121</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>11</v>
       </c>
@@ -26476,7 +26503,7 @@
         <v>3.2708327850010943</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>12</v>
       </c>
@@ -26490,7 +26517,7 @@
         <v>1.0825317547305484</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>13</v>
       </c>
@@ -26504,7 +26531,7 @@
         <v>0.58267158231675087</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>14</v>
       </c>
@@ -26518,7 +26545,7 @@
         <v>1.5907898179514348</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>17</v>
       </c>
@@ -26532,7 +26559,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>20</v>
       </c>
@@ -26546,7 +26573,7 @@
         <v>1.181453906563152</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>22</v>
       </c>
@@ -26560,7 +26587,7 @@
         <v>2.368411915187052</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>23</v>
       </c>
@@ -26574,7 +26601,7 @@
         <v>2.3014940799402459</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>24</v>
       </c>
@@ -26588,7 +26615,7 @@
         <v>1.6852299546352716</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>27</v>
       </c>
@@ -26602,7 +26629,7 @@
         <v>2.0099751242241779</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>99</v>
       </c>
@@ -26616,7 +26643,7 @@
         <v>1.1547005383792515</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>40</v>
       </c>
@@ -26630,7 +26657,7 @@
         <v>2.1283317218815649</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>1</v>
       </c>
@@ -26644,7 +26671,7 @@
         <v>1.5745369689742652</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>8</v>
       </c>
@@ -26658,7 +26685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>9</v>
       </c>
@@ -26672,7 +26699,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>11</v>
       </c>
@@ -26686,7 +26713,7 @@
         <v>1.8098370656171325</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>12</v>
       </c>
@@ -26700,7 +26727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>14</v>
       </c>
@@ -26714,7 +26741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>17</v>
       </c>
@@ -26728,7 +26755,7 @@
         <v>1.7420454133639061</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>20</v>
       </c>
@@ -26742,7 +26769,7 @@
         <v>0.62360956446232352</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>22</v>
       </c>
@@ -26756,7 +26783,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>23</v>
       </c>
@@ -26770,7 +26797,7 @@
         <v>1.5562374497485916</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -26784,7 +26811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>44</v>
       </c>
@@ -26811,20 +26838,20 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.35546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -26838,7 +26865,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>45</v>
       </c>
@@ -26852,7 +26879,7 @@
         <v>2.0529149029219997</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -26866,7 +26893,7 @@
         <v>1.9441638708966409</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -26880,7 +26907,7 @@
         <v>1.3820274961085253</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -26894,7 +26921,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -26908,7 +26935,7 @@
         <v>1.003081671403766</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -26922,7 +26949,7 @@
         <v>1.3618631650341442</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -26936,7 +26963,7 @@
         <v>1.979486637221574</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>11</v>
       </c>
@@ -26950,7 +26977,7 @@
         <v>3.3603707885789467</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>12</v>
       </c>
@@ -26964,7 +26991,7 @@
         <v>1.6613247725836149</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>13</v>
       </c>
@@ -26978,7 +27005,7 @@
         <v>0.58267158231675087</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>14</v>
       </c>
@@ -26992,7 +27019,7 @@
         <v>1.5612494995995996</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>17</v>
       </c>
@@ -27006,7 +27033,7 @@
         <v>1.948557158514987</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>20</v>
       </c>
@@ -27020,7 +27047,7 @@
         <v>1.3045359554097833</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>22</v>
       </c>
@@ -27034,7 +27061,7 @@
         <v>2.4509019595293715</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>23</v>
       </c>
@@ -27048,7 +27075,7 @@
         <v>3.064129385141706</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>24</v>
       </c>
@@ -27062,7 +27089,7 @@
         <v>1.6852299546352716</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>27</v>
       </c>
@@ -27076,7 +27103,7 @@
         <v>2.1780270092201706</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>99</v>
       </c>
@@ -27090,7 +27117,7 @@
         <v>1.1547005383792515</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>40</v>
       </c>
@@ -27104,7 +27131,7 @@
         <v>1.782893978199489</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>1</v>
       </c>
@@ -27118,7 +27145,7 @@
         <v>1.5456030825826172</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>9</v>
       </c>
@@ -27132,7 +27159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>11</v>
       </c>
@@ -27146,7 +27173,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>12</v>
       </c>
@@ -27160,7 +27187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>17</v>
       </c>
@@ -27174,7 +27201,7 @@
         <v>0.41457809879442498</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -27188,7 +27215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -27202,7 +27229,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>44</v>
       </c>
